--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H2">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I2">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J2">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N2">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O2">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P2">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q2">
-        <v>19.19250117698667</v>
+        <v>77.32730479592443</v>
       </c>
       <c r="R2">
-        <v>172.73251059288</v>
+        <v>695.9457431633199</v>
       </c>
       <c r="S2">
-        <v>0.01655558762638799</v>
+        <v>0.03692052439751384</v>
       </c>
       <c r="T2">
-        <v>0.01655558762638798</v>
+        <v>0.03692052439751384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H3">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I3">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J3">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N3">
         <v>173.401921</v>
       </c>
       <c r="O3">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P3">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q3">
-        <v>35.27752261528367</v>
+        <v>101.6284768049662</v>
       </c>
       <c r="R3">
-        <v>317.497703537553</v>
+        <v>914.6562912446958</v>
       </c>
       <c r="S3">
-        <v>0.03043064119227583</v>
+        <v>0.0485233083871518</v>
       </c>
       <c r="T3">
-        <v>0.03043064119227581</v>
+        <v>0.0485233083871518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H4">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I4">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J4">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N4">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O4">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P4">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q4">
-        <v>8.429058466741333</v>
+        <v>36.79859856509778</v>
       </c>
       <c r="R4">
-        <v>75.861526200672</v>
+        <v>331.1873870858799</v>
       </c>
       <c r="S4">
-        <v>0.007270965611371845</v>
+        <v>0.01756977770921374</v>
       </c>
       <c r="T4">
-        <v>0.007270965611371843</v>
+        <v>0.01756977770921374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H5">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I5">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J5">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N5">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O5">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P5">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q5">
-        <v>7.349548937773333</v>
+        <v>21.39319210284533</v>
       </c>
       <c r="R5">
-        <v>66.14594043996</v>
+        <v>192.538728925608</v>
       </c>
       <c r="S5">
-        <v>0.006339773035920535</v>
+        <v>0.01021434631736228</v>
       </c>
       <c r="T5">
-        <v>0.006339773035920531</v>
+        <v>0.01021434631736228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I6">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J6">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N6">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O6">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P6">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q6">
-        <v>84.60209501737778</v>
+        <v>118.3218843820472</v>
       </c>
       <c r="R6">
-        <v>761.4188551564001</v>
+        <v>1064.896959438425</v>
       </c>
       <c r="S6">
-        <v>0.07297836715079513</v>
+        <v>0.05649370595051995</v>
       </c>
       <c r="T6">
-        <v>0.0729783671507951</v>
+        <v>0.05649370595051995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I7">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J7">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N7">
         <v>173.401921</v>
       </c>
       <c r="O7">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P7">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q7">
         <v>155.5061684119961</v>
@@ -883,10 +883,10 @@
         <v>1399.555515707965</v>
       </c>
       <c r="S7">
-        <v>0.1341407237049267</v>
+        <v>0.07424763219112739</v>
       </c>
       <c r="T7">
-        <v>0.1341407237049267</v>
+        <v>0.07424763219112739</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I8">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J8">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N8">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O8">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P8">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q8">
-        <v>37.15597038312889</v>
+        <v>56.3071419123139</v>
       </c>
       <c r="R8">
-        <v>334.40373344816</v>
+        <v>506.764277210825</v>
       </c>
       <c r="S8">
-        <v>0.03205100355856524</v>
+        <v>0.02688428378842745</v>
       </c>
       <c r="T8">
-        <v>0.03205100355856523</v>
+        <v>0.02688428378842744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I9">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J9">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N9">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O9">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P9">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q9">
-        <v>32.39740520708889</v>
+        <v>32.73465704302167</v>
       </c>
       <c r="R9">
-        <v>291.5766468638</v>
+        <v>294.611913387195</v>
       </c>
       <c r="S9">
-        <v>0.02794623149048935</v>
+        <v>0.01562941715336791</v>
       </c>
       <c r="T9">
-        <v>0.02794623149048934</v>
+        <v>0.01562941715336791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H10">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I10">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J10">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N10">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O10">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P10">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q10">
-        <v>173.6731983143111</v>
+        <v>437.0817957417861</v>
       </c>
       <c r="R10">
-        <v>1563.0587848288</v>
+        <v>3933.736161676075</v>
       </c>
       <c r="S10">
-        <v>0.1498117325372528</v>
+        <v>0.208688110182838</v>
       </c>
       <c r="T10">
-        <v>0.1498117325372528</v>
+        <v>0.208688110182838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H11">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I11">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J11">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N11">
         <v>173.401921</v>
       </c>
       <c r="O11">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P11">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q11">
-        <v>319.2267711593645</v>
+        <v>574.4407781655706</v>
       </c>
       <c r="R11">
-        <v>2873.04094043428</v>
+        <v>5169.967003490135</v>
       </c>
       <c r="S11">
-        <v>0.2753672767234155</v>
+        <v>0.2742712269768207</v>
       </c>
       <c r="T11">
-        <v>0.2753672767234154</v>
+        <v>0.2742712269768207</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H12">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I12">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J12">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N12">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O12">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P12">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q12">
-        <v>76.27466212963556</v>
+        <v>207.9989414355195</v>
       </c>
       <c r="R12">
-        <v>686.4719591667201</v>
+        <v>1871.990472919675</v>
       </c>
       <c r="S12">
-        <v>0.06579506448458541</v>
+        <v>0.09931071582274903</v>
       </c>
       <c r="T12">
-        <v>0.06579506448458539</v>
+        <v>0.099310715822749</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H13">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I13">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J13">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N13">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O13">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P13">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q13">
-        <v>66.50616604995555</v>
+        <v>120.9220319476784</v>
       </c>
       <c r="R13">
-        <v>598.5554944496</v>
+        <v>1088.298287529105</v>
       </c>
       <c r="S13">
-        <v>0.05736869048914761</v>
+        <v>0.05773516667241337</v>
       </c>
       <c r="T13">
-        <v>0.05736869048914758</v>
+        <v>0.05773516667241337</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.24836</v>
+        <v>1.141526666666667</v>
       </c>
       <c r="H14">
-        <v>3.74508</v>
+        <v>3.42458</v>
       </c>
       <c r="I14">
-        <v>0.1239439423948662</v>
+        <v>0.0735117844504946</v>
       </c>
       <c r="J14">
-        <v>0.1239439423948662</v>
+        <v>0.07351178445049458</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N14">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O14">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P14">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q14">
-        <v>39.2559951392</v>
+        <v>50.20375110867777</v>
       </c>
       <c r="R14">
-        <v>353.3039562528</v>
+        <v>451.8337599781</v>
       </c>
       <c r="S14">
-        <v>0.03386249980629807</v>
+        <v>0.02397017227674464</v>
       </c>
       <c r="T14">
-        <v>0.03386249980629806</v>
+        <v>0.02397017227674463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.24836</v>
+        <v>1.141526666666667</v>
       </c>
       <c r="H15">
-        <v>3.74508</v>
+        <v>3.42458</v>
       </c>
       <c r="I15">
-        <v>0.1239439423948662</v>
+        <v>0.0735117844504946</v>
       </c>
       <c r="J15">
-        <v>0.1239439423948662</v>
+        <v>0.07351178445049458</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N15">
         <v>173.401921</v>
       </c>
       <c r="O15">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P15">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q15">
-        <v>72.15600736652</v>
+        <v>65.98097229090888</v>
       </c>
       <c r="R15">
-        <v>649.40406629868</v>
+        <v>593.8287506181799</v>
       </c>
       <c r="S15">
-        <v>0.0622422836768728</v>
+        <v>0.03150312950473581</v>
       </c>
       <c r="T15">
-        <v>0.06224228367687277</v>
+        <v>0.03150312950473581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.24836</v>
+        <v>1.141526666666667</v>
       </c>
       <c r="H16">
-        <v>3.74508</v>
+        <v>3.42458</v>
       </c>
       <c r="I16">
-        <v>0.1239439423948662</v>
+        <v>0.0735117844504946</v>
       </c>
       <c r="J16">
-        <v>0.1239439423948662</v>
+        <v>0.07351178445049458</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N16">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O16">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P16">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q16">
-        <v>17.24064389248</v>
+        <v>23.89101350921111</v>
       </c>
       <c r="R16">
-        <v>155.16579503232</v>
+        <v>215.0191215829</v>
       </c>
       <c r="S16">
-        <v>0.01487190169041415</v>
+        <v>0.01140695061693979</v>
       </c>
       <c r="T16">
-        <v>0.01487190169041414</v>
+        <v>0.01140695061693979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.24836</v>
+        <v>1.141526666666667</v>
       </c>
       <c r="H17">
-        <v>3.74508</v>
+        <v>3.42458</v>
       </c>
       <c r="I17">
-        <v>0.1239439423948662</v>
+        <v>0.0735117844504946</v>
       </c>
       <c r="J17">
-        <v>0.1239439423948662</v>
+        <v>0.07351178445049458</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N17">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O17">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P17">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q17">
-        <v>15.0326346064</v>
+        <v>13.88925289179333</v>
       </c>
       <c r="R17">
-        <v>135.2937114576</v>
+        <v>125.00327602614</v>
       </c>
       <c r="S17">
-        <v>0.01296725722128117</v>
+        <v>0.00663153205207435</v>
       </c>
       <c r="T17">
-        <v>0.01296725722128116</v>
+        <v>0.006631532052074349</v>
       </c>
     </row>
   </sheetData>
